--- a/biology/Zoologie/Enna_velox/Enna_velox.xlsx
+++ b/biology/Zoologie/Enna_velox/Enna_velox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enna velox est une espèce d'araignées aranéomorphes de la famille des Trechaleidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enna velox est une espèce d'araignées aranéomorphes de la famille des Trechaleidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Tabasco au Mexique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Tabasco au Mexique,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Silva, Lise et Carico en 2008 mesure 4,10 mm de long sur 3,50 mm de large et celle de la femelle mesure 3,60 mm de long sur 3,61 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Silva, Lise et Carico en 2008 mesure 4,10 mm de long sur 3,50 mm de large et celle de la femelle mesure 3,60 mm de long sur 3,61 mm de large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1897 : Arachnida. Araneida. Biologia Centrali-Americana, Zoology. London, vol. 1, p. 225-232 (texte intégral).</t>
         </is>
